--- a/Data/HH Tender for 25th August .xlsx
+++ b/Data/HH Tender for 25th August .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouiseGeorge\Box\Squeaky\SqueakyQuotingPlatform\Huntleigh Healthcare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VbaScripts\Convector\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832FFDFD-A7DB-41AC-8C58-62E1DE7D42B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Huntleigh Healthcare Ltd" sheetId="1" r:id="rId1"/>
@@ -187,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -554,40 +553,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
